--- a/bin/Debug/net9.0/Data/stock.xlsx
+++ b/bin/Debug/net9.0/Data/stock.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Barcode</t>
   </si>
@@ -29,34 +29,22 @@
     <t>DefaultReductionAmount</t>
   </si>
   <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>Product A</t>
-  </si>
-  <si>
-    <t>avares://MSM/Assets/product_a.png</t>
-  </si>
-  <si>
     <t>67890</t>
   </si>
   <si>
-    <t>Product B</t>
+    <t>Product AA</t>
   </si>
   <si>
-    <t>avares://MSM/Assets/product_b.png</t>
+    <t>C:\Users\jinho\Downloads\signature.png</t>
   </si>
   <si>
-    <t>1234</t>
+    <t>123</t>
   </si>
   <si>
-    <t>Test Product 1</t>
+    <t>11</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>asdf</t>
   </si>
 </sst>
 </file>
@@ -102,7 +90,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr ">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -133,13 +121,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -150,46 +138,29 @@
         <v>9</v>
       </c>
       <c r="C3" s="0">
-        <v>20</v>
+        <v>1111</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="0">
         <v>1</v>
       </c>
     </row>

--- a/bin/Debug/net9.0/Data/stock.xlsx
+++ b/bin/Debug/net9.0/Data/stock.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Barcode</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>8856976000689</t>
+  </si>
+  <si>
+    <t>a4용지</t>
   </si>
 </sst>
 </file>
@@ -90,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr ">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -164,6 +170,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/bin/Debug/net9.0/Data/stock.xlsx
+++ b/bin/Debug/net9.0/Data/stock.xlsx
@@ -96,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr ">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -155,35 +155,18 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0">
-        <v>1111</v>
+        <v>990</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="0">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="0">
         <v>1</v>
       </c>
     </row>

--- a/bin/Debug/net9.0/Data/stock.xlsx
+++ b/bin/Debug/net9.0/Data/stock.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Barcode</t>
   </si>
@@ -35,16 +35,13 @@
     <t>Product AA</t>
   </si>
   <si>
-    <t>C:\Users\jinho\Downloads\signature.png</t>
+    <t>C:\Users\jinho\Downloads\pexels-chevanon-312418.jpg</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
     <t>11</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>8856976000689</t>
@@ -147,7 +144,7 @@
         <v>1111</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="0">
         <v>1</v>
@@ -155,10 +152,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0">
         <v>990</v>
